--- a/Excel-XLSX/UN-QAT.xlsx
+++ b/Excel-XLSX/UN-QAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,169 @@
     <t>1</t>
   </si>
   <si>
-    <t>xXuR5f</t>
+    <t>Sfx24l</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>1980</t>
@@ -102,55 +264,91 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>QAT</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>26</t>
   </si>
   <si>
     <t>1981</t>
   </si>
   <si>
-    <t>3</t>
+    <t>27</t>
   </si>
   <si>
     <t>1982</t>
   </si>
   <si>
-    <t>4</t>
+    <t>28</t>
   </si>
   <si>
     <t>1983</t>
   </si>
   <si>
-    <t>5</t>
+    <t>29</t>
   </si>
   <si>
     <t>1984</t>
   </si>
   <si>
-    <t>6</t>
+    <t>30</t>
   </si>
   <si>
     <t>1985</t>
   </si>
   <si>
-    <t>7</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>1999</t>
@@ -165,16 +363,190 @@
     <t>IRQ</t>
   </si>
   <si>
-    <t>8</t>
+    <t>41</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>172</t>
@@ -186,7 +558,97 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>15</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>185</t>
@@ -198,28 +660,133 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
   </si>
   <si>
     <t>262</t>
@@ -231,550 +798,10 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MTQ</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>148</t>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>155</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1186,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1299,8 +1326,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1314,10 +1341,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1367,8 +1394,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1409,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1435,8 +1462,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1450,10 +1477,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1503,8 +1530,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1518,10 +1545,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1571,8 +1598,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1586,10 +1613,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1639,8 +1666,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1654,22 +1681,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1684,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
@@ -1707,8 +1734,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1722,22 +1749,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1752,10 +1779,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1775,8 +1802,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1790,22 +1817,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1820,10 +1847,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1843,8 +1870,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1858,23 +1885,23 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>32</v>
@@ -1911,8 +1938,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1926,22 +1953,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1956,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
@@ -1979,8 +2006,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1994,22 +2021,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2024,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -2047,8 +2074,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2062,22 +2089,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2092,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -2115,8 +2142,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2130,40 +2157,40 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>32</v>
@@ -2183,8 +2210,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2198,22 +2225,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2228,7 +2255,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>52</v>
@@ -2266,22 +2293,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2296,10 +2323,10 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>32</v>
@@ -2334,22 +2361,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2364,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -2387,8 +2414,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2402,22 +2429,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2435,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -2455,8 +2482,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2470,10 +2497,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>68</v>
@@ -2485,7 +2512,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2503,7 +2530,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>32</v>
@@ -2523,8 +2550,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2538,22 +2565,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2568,10 +2595,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>32</v>
@@ -2591,8 +2618,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2606,22 +2633,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2639,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2659,8 +2686,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2674,22 +2701,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2704,10 +2731,10 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>32</v>
@@ -2727,8 +2754,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2742,22 +2769,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2775,7 +2802,7 @@
         <v>32</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>32</v>
@@ -2810,22 +2837,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2843,7 +2870,7 @@
         <v>32</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>32</v>
@@ -2878,22 +2905,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2908,7 +2935,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2931,8 +2958,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2946,10 +2973,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>79</v>
@@ -2961,25 +2988,25 @@
         <v>81</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O27" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>32</v>
@@ -2999,8 +3026,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3014,22 +3041,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3044,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
@@ -3067,8 +3094,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3082,22 +3109,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3112,10 +3139,10 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>32</v>
@@ -3135,8 +3162,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3150,22 +3177,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3180,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>32</v>
@@ -3195,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>32</v>
@@ -3203,8 +3230,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3218,22 +3245,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3248,10 +3275,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>32</v>
@@ -3271,8 +3298,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>32</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -3286,41 +3313,41 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3339,8 +3366,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>32</v>
+      <c r="V32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3354,22 +3381,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3387,7 +3414,7 @@
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>32</v>
@@ -3407,8 +3434,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>32</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3422,22 +3449,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3452,10 +3479,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>32</v>
@@ -3475,8 +3502,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3490,22 +3517,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3523,7 +3550,7 @@
         <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>32</v>
@@ -3543,8 +3570,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3558,22 +3585,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3591,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>32</v>
@@ -3611,8 +3638,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3626,22 +3653,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3656,10 +3683,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3679,8 +3706,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3694,22 +3721,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3727,7 +3754,7 @@
         <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>32</v>
@@ -3747,8 +3774,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3762,22 +3789,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3792,10 +3819,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3815,8 +3842,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3830,22 +3857,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3863,7 +3890,7 @@
         <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>32</v>
@@ -3883,8 +3910,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>32</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3925,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3928,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
@@ -3951,8 +3978,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>32</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3966,22 +3993,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3996,10 +4023,10 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>32</v>
@@ -4019,8 +4046,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>32</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4037,19 +4064,19 @@
         <v>117</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4064,7 +4091,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
@@ -4087,8 +4114,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>32</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4102,22 +4129,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4132,10 +4159,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>32</v>
@@ -4155,8 +4182,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>32</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4170,22 +4197,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4200,10 +4227,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -4223,8 +4250,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4238,22 +4265,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4268,10 +4295,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>32</v>
@@ -4291,8 +4318,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>32</v>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4306,22 +4333,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4336,10 +4363,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>32</v>
@@ -4359,8 +4386,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4374,22 +4401,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4404,10 +4431,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>32</v>
@@ -4427,8 +4454,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4442,41 +4469,41 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
       </c>
@@ -4495,8 +4522,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4510,22 +4537,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4540,10 +4567,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4563,8 +4590,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4578,22 +4605,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4608,7 +4635,7 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>32</v>
@@ -4623,7 +4650,7 @@
         <v>32</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>32</v>
@@ -4631,8 +4658,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4646,22 +4673,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4676,10 +4703,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4699,8 +4726,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4717,19 +4744,19 @@
         <v>130</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4744,10 +4771,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>32</v>
@@ -4767,8 +4794,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4782,40 +4809,40 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="O54" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4835,8 +4862,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4853,19 +4880,19 @@
         <v>133</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4880,10 +4907,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4903,8 +4930,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>32</v>
+      <c r="V55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4918,22 +4945,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4948,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>32</v>
@@ -4963,7 +4990,7 @@
         <v>32</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>32</v>
@@ -4971,8 +4998,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>32</v>
+      <c r="V56" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4986,22 +5013,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5016,13 +5043,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>32</v>
@@ -5039,8 +5066,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5054,22 +5081,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5084,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>32</v>
@@ -5107,8 +5134,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5122,22 +5149,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5152,10 +5179,10 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>32</v>
@@ -5175,8 +5202,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>32</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5190,22 +5217,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5220,10 +5247,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5243,8 +5270,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5258,22 +5285,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5288,10 +5315,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>32</v>
@@ -5303,7 +5330,7 @@
         <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>32</v>
@@ -5311,8 +5338,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5326,22 +5353,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5356,10 +5383,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>32</v>
@@ -5379,8 +5406,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
+      <c r="V62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5394,40 +5421,40 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O63" s="2" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>32</v>
@@ -5447,8 +5474,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5462,22 +5489,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5492,10 +5519,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>32</v>
@@ -5530,22 +5557,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5560,10 +5587,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5598,22 +5625,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5631,7 +5658,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>32</v>
@@ -5643,7 +5670,7 @@
         <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>32</v>
@@ -5651,8 +5678,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
+      <c r="V66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5666,22 +5693,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5696,10 +5723,10 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>32</v>
@@ -5719,8 +5746,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5734,22 +5761,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5767,7 +5794,7 @@
         <v>32</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5787,8 +5814,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
+      <c r="V68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5802,22 +5829,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5835,7 +5862,7 @@
         <v>32</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>32</v>
@@ -5855,8 +5882,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>32</v>
+      <c r="V69" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -5870,22 +5897,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5900,10 +5927,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>32</v>
@@ -5923,8 +5950,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>32</v>
+      <c r="V70" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5938,22 +5965,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5968,10 +5995,10 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>32</v>
@@ -5991,8 +6018,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
+      <c r="V71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6006,22 +6033,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6039,7 +6066,7 @@
         <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>32</v>
@@ -6051,7 +6078,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6059,8 +6086,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
+      <c r="V72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6074,22 +6101,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6104,7 +6131,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
@@ -6127,8 +6154,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>32</v>
+      <c r="V73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6142,22 +6169,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6172,10 +6199,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>32</v>
@@ -6210,22 +6237,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6240,10 +6267,10 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>32</v>
@@ -6278,22 +6305,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6308,7 +6335,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6331,8 +6358,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
+      <c r="V76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6346,22 +6373,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6376,7 +6403,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
@@ -6391,7 +6418,7 @@
         <v>32</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>32</v>
@@ -6399,8 +6426,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
+      <c r="V77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6414,22 +6441,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6444,10 +6471,10 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>32</v>
@@ -6467,8 +6494,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
+      <c r="V78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6482,22 +6509,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6512,10 +6539,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>32</v>
@@ -6535,8 +6562,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
+      <c r="V79" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6550,41 +6577,41 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>32</v>
       </c>
@@ -6603,8 +6630,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>32</v>
+      <c r="V80" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6618,22 +6645,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6651,7 +6678,7 @@
         <v>32</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -6663,7 +6690,7 @@
         <v>32</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>32</v>
@@ -6671,8 +6698,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>32</v>
+      <c r="V81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6686,22 +6713,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6716,10 +6743,10 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>32</v>
@@ -6739,8 +6766,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>32</v>
+      <c r="V82" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6754,22 +6781,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6784,13 +6811,13 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>32</v>
@@ -6807,8 +6834,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>32</v>
+      <c r="V83" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6822,22 +6849,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6852,7 +6879,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6875,8 +6902,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>32</v>
+      <c r="V84" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -6890,22 +6917,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6920,7 +6947,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
@@ -6935,7 +6962,7 @@
         <v>32</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>32</v>
@@ -6943,8 +6970,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>32</v>
+      <c r="V85" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -6958,22 +6985,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -6988,10 +7015,10 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>32</v>
@@ -7011,8 +7038,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>32</v>
+      <c r="V86" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7026,22 +7053,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7056,7 +7083,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7079,8 +7106,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>32</v>
+      <c r="V87" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7094,22 +7121,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7124,10 +7151,10 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>32</v>
@@ -7147,8 +7174,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>32</v>
+      <c r="V88" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7162,22 +7189,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7192,10 +7219,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>32</v>
@@ -7215,8 +7242,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>32</v>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7230,22 +7257,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7260,10 +7287,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>32</v>
@@ -7283,8 +7310,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>32</v>
+      <c r="V90" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7301,19 +7328,19 @@
         <v>191</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7328,7 +7355,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7351,8 +7378,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>32</v>
+      <c r="V91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7369,19 +7396,19 @@
         <v>192</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7396,7 +7423,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>32</v>
@@ -7411,7 +7438,7 @@
         <v>32</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>32</v>
@@ -7419,8 +7446,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>32</v>
+      <c r="V92" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7434,22 +7461,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7464,10 +7491,10 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>32</v>
@@ -7487,8 +7514,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>32</v>
+      <c r="V93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7505,19 +7532,19 @@
         <v>193</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7532,10 +7559,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>32</v>
@@ -7555,8 +7582,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>32</v>
+      <c r="V94" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7573,19 +7600,19 @@
         <v>194</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7600,10 +7627,10 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>32</v>
@@ -7623,8 +7650,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>32</v>
+      <c r="V95" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7638,22 +7665,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7668,10 +7695,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>32</v>
@@ -7706,22 +7733,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7736,10 +7763,10 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>32</v>
@@ -7774,22 +7801,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7804,10 +7831,10 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>32</v>
@@ -7827,8 +7854,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>32</v>
+      <c r="V98" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -7842,23 +7869,23 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
       </c>
@@ -7875,7 +7902,7 @@
         <v>32</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>32</v>
@@ -7887,7 +7914,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7895,8 +7922,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>32</v>
+      <c r="V99" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -7910,22 +7937,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7943,7 +7970,7 @@
         <v>32</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>32</v>
@@ -7963,8 +7990,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>32</v>
+      <c r="V100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -7978,22 +8005,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8008,10 +8035,10 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>32</v>
@@ -8031,8 +8058,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>32</v>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8046,22 +8073,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8076,10 +8103,10 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>32</v>
@@ -8099,8 +8126,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>32</v>
+      <c r="V102" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8117,19 +8144,19 @@
         <v>205</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8147,7 +8174,7 @@
         <v>32</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>32</v>
@@ -8167,8 +8194,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>32</v>
+      <c r="V103" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8182,22 +8209,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8212,10 +8239,10 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>32</v>
@@ -8235,8 +8262,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>32</v>
+      <c r="V104" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8250,22 +8277,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8280,10 +8307,10 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>32</v>
@@ -8303,8 +8330,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>32</v>
+      <c r="V105" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8318,22 +8345,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8351,7 +8378,7 @@
         <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>32</v>
@@ -8363,7 +8390,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8371,8 +8398,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>32</v>
+      <c r="V106" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8386,22 +8413,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8419,7 +8446,7 @@
         <v>32</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>32</v>
@@ -8439,8 +8466,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="2" t="s">
-        <v>32</v>
+      <c r="V107" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8454,41 +8481,41 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P108" s="2" t="s">
         <v>32</v>
       </c>
@@ -8507,8 +8534,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="2" t="s">
-        <v>32</v>
+      <c r="V108" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -8522,22 +8549,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8552,10 +8579,10 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>32</v>
@@ -8575,8 +8602,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>32</v>
+      <c r="V109" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -8590,22 +8617,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8623,7 +8650,7 @@
         <v>32</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>32</v>
@@ -8658,22 +8685,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8688,10 +8715,10 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>32</v>
@@ -8726,22 +8753,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8756,7 +8783,7 @@
         <v>30</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>32</v>
@@ -8779,8 +8806,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="2" t="s">
-        <v>32</v>
+      <c r="V112" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -8797,19 +8824,19 @@
         <v>214</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8824,7 +8851,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>32</v>
@@ -8839,7 +8866,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8847,8 +8874,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="2" t="s">
-        <v>32</v>
+      <c r="V113" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -8865,19 +8892,19 @@
         <v>215</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8895,7 +8922,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>32</v>
@@ -8915,8 +8942,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="2" t="s">
-        <v>32</v>
+      <c r="V114" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -8930,22 +8957,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G115" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -8960,7 +8987,7 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>32</v>
@@ -8983,8 +9010,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="2" t="s">
-        <v>32</v>
+      <c r="V115" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9001,19 +9028,19 @@
         <v>216</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9028,7 +9055,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>32</v>
@@ -9051,8 +9078,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="2" t="s">
-        <v>32</v>
+      <c r="V116" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9069,19 +9096,19 @@
         <v>217</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9096,10 +9123,10 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>32</v>
@@ -9119,8 +9146,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="2" t="s">
-        <v>32</v>
+      <c r="V117" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9134,22 +9161,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9164,10 +9191,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>32</v>
@@ -9187,8 +9214,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="2" t="s">
-        <v>32</v>
+      <c r="V118" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -9202,22 +9229,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9232,10 +9259,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>32</v>
@@ -9255,8 +9282,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="2" t="s">
-        <v>32</v>
+      <c r="V119" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -9270,22 +9297,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9300,10 +9327,10 @@
         <v>30</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>32</v>
@@ -9323,8 +9350,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="2" t="s">
-        <v>32</v>
+      <c r="V120" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -9338,22 +9365,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9368,10 +9395,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>32</v>
@@ -9391,8 +9418,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="2" t="s">
-        <v>32</v>
+      <c r="V121" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -9406,22 +9433,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9436,10 +9463,10 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>32</v>
@@ -9459,8 +9486,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="2" t="s">
-        <v>32</v>
+      <c r="V122" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -9474,40 +9501,40 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N123" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O123" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>32</v>
@@ -9519,7 +9546,7 @@
         <v>32</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>32</v>
@@ -9527,8 +9554,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>32</v>
+      <c r="V123" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -9542,22 +9569,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9572,10 +9599,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>32</v>
@@ -9595,8 +9622,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="2" t="s">
-        <v>32</v>
+      <c r="V124" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -9610,22 +9637,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9640,10 +9667,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>32</v>
@@ -9663,8 +9690,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="2" t="s">
-        <v>32</v>
+      <c r="V125" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -9678,22 +9705,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9708,10 +9735,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>32</v>
@@ -9731,8 +9758,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="2" t="s">
-        <v>32</v>
+      <c r="V126" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -9746,22 +9773,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9776,10 +9803,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>32</v>
@@ -9799,8 +9826,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="2" t="s">
-        <v>32</v>
+      <c r="V127" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -9814,22 +9841,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9844,10 +9871,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>32</v>
@@ -9867,8 +9894,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="2" t="s">
-        <v>32</v>
+      <c r="V128" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -9882,22 +9909,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -9912,10 +9939,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>32</v>
@@ -9950,22 +9977,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -9980,10 +10007,10 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>32</v>
@@ -10018,22 +10045,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10048,10 +10075,10 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>32</v>
@@ -10071,8 +10098,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="2" t="s">
-        <v>32</v>
+      <c r="V131" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -10086,22 +10113,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10119,7 +10146,7 @@
         <v>32</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>32</v>
@@ -10139,8 +10166,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="2" t="s">
-        <v>32</v>
+      <c r="V132" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -10154,22 +10181,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10184,7 +10211,7 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>32</v>
@@ -10207,8 +10234,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="2" t="s">
-        <v>32</v>
+      <c r="V133" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -10222,22 +10249,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10252,10 +10279,10 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>32</v>
@@ -10275,8 +10302,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="2" t="s">
-        <v>32</v>
+      <c r="V134" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -10290,22 +10317,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10320,10 +10347,10 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>32</v>
@@ -10335,7 +10362,7 @@
         <v>32</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>32</v>
@@ -10343,8 +10370,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="2" t="s">
-        <v>32</v>
+      <c r="V135" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -10358,22 +10385,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10388,10 +10415,10 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>32</v>
@@ -10426,22 +10453,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10456,10 +10483,10 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>32</v>
@@ -10494,22 +10521,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10524,10 +10551,10 @@
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>32</v>
@@ -10539,7 +10566,7 @@
         <v>32</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>32</v>
@@ -10547,8 +10574,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="2" t="s">
-        <v>32</v>
+      <c r="V138" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -10562,22 +10589,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10595,7 +10622,7 @@
         <v>32</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>32</v>
@@ -10607,7 +10634,7 @@
         <v>32</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>32</v>
@@ -10615,8 +10642,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="2" t="s">
-        <v>32</v>
+      <c r="V139" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -10630,22 +10657,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10660,10 +10687,10 @@
         <v>30</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>32</v>
@@ -10675,7 +10702,7 @@
         <v>32</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>32</v>
@@ -10683,8 +10710,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="2" t="s">
-        <v>32</v>
+      <c r="V140" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -10698,22 +10725,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10731,7 +10758,7 @@
         <v>32</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>32</v>
@@ -10743,7 +10770,7 @@
         <v>32</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>32</v>
@@ -10751,8 +10778,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="2" t="s">
-        <v>32</v>
+      <c r="V141" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -10766,22 +10793,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10799,7 +10826,7 @@
         <v>32</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>32</v>
@@ -10811,7 +10838,7 @@
         <v>32</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>32</v>
@@ -10819,8 +10846,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="2" t="s">
-        <v>32</v>
+      <c r="V142" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -10834,22 +10861,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -10864,10 +10891,10 @@
         <v>30</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>32</v>
@@ -10879,7 +10906,7 @@
         <v>32</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>32</v>
@@ -10887,8 +10914,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="2" t="s">
-        <v>32</v>
+      <c r="V143" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -10902,22 +10929,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -10932,7 +10959,7 @@
         <v>30</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>32</v>
@@ -10947,7 +10974,7 @@
         <v>32</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>32</v>
@@ -10955,8 +10982,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="2" t="s">
-        <v>32</v>
+      <c r="V144" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -10970,22 +10997,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11000,10 +11027,10 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>32</v>
@@ -11015,7 +11042,7 @@
         <v>32</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T145" s="2" t="s">
         <v>32</v>
@@ -11023,8 +11050,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="2" t="s">
-        <v>32</v>
+      <c r="V145" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
@@ -11038,22 +11065,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11083,7 +11110,7 @@
         <v>32</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="T146" s="2" t="s">
         <v>32</v>
@@ -11091,8 +11118,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="2" t="s">
-        <v>32</v>
+      <c r="V146" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -11106,22 +11133,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11139,7 +11166,7 @@
         <v>32</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>32</v>
@@ -11151,7 +11178,7 @@
         <v>32</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>32</v>
@@ -11159,8 +11186,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="2" t="s">
-        <v>32</v>
+      <c r="V147" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -11174,22 +11201,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11204,10 +11231,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>32</v>
@@ -11219,7 +11246,7 @@
         <v>32</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>32</v>
@@ -11227,8 +11254,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="2" t="s">
-        <v>32</v>
+      <c r="V148" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -11242,61 +11269,537 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U149" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V149" s="2" t="s">
-        <v>32</v>
+      <c r="E151" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-QAT.xlsx
+++ b/Excel-XLSX/UN-QAT.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Sfx24l</t>
+    <t>8wLn9O</t>
   </si>
   <si>
     <t>2001</t>
@@ -219,6 +219,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -492,6 +492,9 @@
     <t>63</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
   </si>
   <si>
     <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
   </si>
   <si>
     <t>216</t>
@@ -1326,8 +1326,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1394,8 +1394,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1462,8 +1462,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1530,8 +1530,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1598,8 +1598,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1666,8 +1666,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1734,8 +1734,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1802,8 +1802,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1870,8 +1870,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1938,8 +1938,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2006,8 +2006,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2074,8 +2074,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2142,8 +2142,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2210,8 +2210,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2323,7 +2323,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>52</v>
@@ -2361,22 +2361,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2414,8 +2414,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2429,22 +2429,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2482,8 +2482,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2503,16 +2503,16 @@
         <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2550,8 +2550,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2571,16 +2571,16 @@
         <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2618,8 +2618,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2639,16 +2639,16 @@
         <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2686,8 +2686,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2707,16 +2707,16 @@
         <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2754,8 +2754,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2775,16 +2775,16 @@
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2843,16 +2843,16 @@
         <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2958,8 +2958,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3026,8 +3026,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3094,8 +3094,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3162,8 +3162,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3230,8 +3230,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3298,8 +3298,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3366,8 +3366,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3434,8 +3434,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3502,8 +3502,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3570,8 +3570,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3638,8 +3638,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3706,8 +3706,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3774,8 +3774,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3842,8 +3842,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3910,8 +3910,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3978,8 +3978,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4046,8 +4046,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4114,8 +4114,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4182,8 +4182,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4250,8 +4250,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4318,8 +4318,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4386,8 +4386,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4454,8 +4454,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4522,8 +4522,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4570,7 +4570,7 @@
         <v>41</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4590,8 +4590,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4658,8 +4658,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4726,8 +4726,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4794,8 +4794,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4862,8 +4862,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4930,8 +4930,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -4998,8 +4998,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5013,7 +5013,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>140</v>
@@ -5066,8 +5066,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5134,8 +5134,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5202,8 +5202,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5270,8 +5270,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5338,8 +5338,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5406,8 +5406,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5474,8 +5474,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5587,7 +5587,7 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>138</v>
@@ -5625,22 +5625,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5678,8 +5678,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5693,22 +5693,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5746,8 +5746,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5761,22 +5761,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5814,8 +5814,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5829,22 +5829,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5882,8 +5882,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -5903,16 +5903,16 @@
         <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5950,8 +5950,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -5965,22 +5965,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6018,8 +6018,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6033,22 +6033,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6086,8 +6086,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6101,22 +6101,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6154,8 +6154,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6175,16 +6175,16 @@
         <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6237,22 +6237,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6305,22 +6305,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6358,8 +6358,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6373,22 +6373,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6426,8 +6426,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6441,22 +6441,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6494,8 +6494,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6509,22 +6509,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6562,8 +6562,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6577,22 +6577,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6630,8 +6630,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -6645,22 +6645,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6698,8 +6698,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -6713,22 +6713,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6766,8 +6766,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6781,22 +6781,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6834,8 +6834,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -6849,22 +6849,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6902,8 +6902,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -6917,22 +6917,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6970,8 +6970,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -6985,22 +6985,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7038,8 +7038,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7059,16 +7059,16 @@
         <v>134</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7106,8 +7106,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7121,22 +7121,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7174,8 +7174,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7195,16 +7195,16 @@
         <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7242,8 +7242,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7263,16 +7263,16 @@
         <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7310,8 +7310,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7325,22 +7325,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7378,8 +7378,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7393,22 +7393,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7446,8 +7446,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7467,16 +7467,16 @@
         <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7514,8 +7514,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -7529,22 +7529,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7582,8 +7582,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -7597,22 +7597,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7650,8 +7650,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -7671,16 +7671,16 @@
         <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7733,22 +7733,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7801,22 +7801,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7854,8 +7854,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -7869,22 +7869,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7922,8 +7922,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -7937,22 +7937,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7990,8 +7990,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8005,22 +8005,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8058,8 +8058,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8073,22 +8073,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8126,8 +8126,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8141,22 +8141,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8194,8 +8194,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8215,16 +8215,16 @@
         <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8262,8 +8262,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8277,22 +8277,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8330,8 +8330,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8345,22 +8345,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8398,8 +8398,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8413,22 +8413,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8466,8 +8466,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -8487,16 +8487,16 @@
         <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8534,8 +8534,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -8549,22 +8549,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8602,8 +8602,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -8623,16 +8623,16 @@
         <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8691,16 +8691,16 @@
         <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8753,22 +8753,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8806,8 +8806,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -8821,22 +8821,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8874,8 +8874,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -8889,22 +8889,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8942,8 +8942,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -8963,16 +8963,16 @@
         <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9010,8 +9010,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9025,22 +9025,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9078,8 +9078,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9093,22 +9093,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9146,8 +9146,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -9161,22 +9161,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9214,8 +9214,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9229,22 +9229,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9282,8 +9282,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9297,22 +9297,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9350,8 +9350,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9365,22 +9365,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9418,8 +9418,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9433,22 +9433,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9486,8 +9486,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -9501,22 +9501,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9554,8 +9554,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -9569,22 +9569,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9622,8 +9622,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -9637,22 +9637,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9690,8 +9690,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -9705,22 +9705,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9758,8 +9758,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -9779,16 +9779,16 @@
         <v>59</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9826,8 +9826,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -9841,22 +9841,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9894,8 +9894,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -9909,22 +9909,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -9977,22 +9977,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10045,22 +10045,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10098,8 +10098,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10113,22 +10113,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10166,8 +10166,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -10181,22 +10181,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10234,8 +10234,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -10249,22 +10249,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10302,8 +10302,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -10317,22 +10317,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10370,8 +10370,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -10385,22 +10385,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10459,16 +10459,16 @@
         <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10574,8 +10574,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -10642,8 +10642,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -10710,8 +10710,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -10778,8 +10778,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -10846,8 +10846,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -10914,8 +10914,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -10982,8 +10982,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -11050,8 +11050,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -11118,8 +11118,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -11186,8 +11186,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -11201,7 +11201,7 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>53</v>
@@ -11254,8 +11254,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -11322,8 +11322,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -11390,8 +11390,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -11458,8 +11458,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -11526,8 +11526,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -11730,8 +11730,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -11798,8 +11798,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-QAT.xlsx
+++ b/Excel-XLSX/UN-QAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,684 +90,696 @@
     <t>8wLn9O</t>
   </si>
   <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>QAT</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
-    <t>3</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>4</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>2004</t>
   </si>
   <si>
-    <t>5</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
-    <t>6</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>7</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>8</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>16</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MTQ</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
     <t>148</t>
   </si>
   <si>
@@ -789,19 +801,34 @@
     <t>154</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1213,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1341,10 +1368,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1409,10 +1436,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1477,10 +1504,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1545,10 +1572,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1613,10 +1640,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1681,22 +1708,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1711,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
@@ -1749,22 +1776,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1779,10 +1806,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1817,22 +1844,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1847,10 +1874,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1885,22 +1912,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1915,7 +1942,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>32</v>
@@ -1953,22 +1980,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1983,7 +2010,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
@@ -2021,22 +2048,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2051,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -2089,22 +2116,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2119,10 +2146,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -2157,22 +2184,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2187,10 +2214,10 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>32</v>
@@ -2225,22 +2252,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2255,7 +2282,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>52</v>
@@ -2293,22 +2320,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2323,10 +2350,10 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>32</v>
@@ -2361,22 +2388,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2391,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -2429,22 +2456,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2462,7 +2489,7 @@
         <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -2497,23 +2524,23 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2557,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>32</v>
@@ -2565,22 +2592,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2595,10 +2622,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>32</v>
@@ -2633,22 +2660,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2666,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2701,22 +2728,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2731,10 +2758,10 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>32</v>
@@ -2769,22 +2796,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2802,7 +2829,7 @@
         <v>32</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>32</v>
@@ -2837,22 +2864,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2870,7 +2897,7 @@
         <v>32</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>32</v>
@@ -2905,22 +2932,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2935,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2973,23 +3000,23 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
       </c>
@@ -3003,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>32</v>
@@ -3041,22 +3068,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3071,7 +3098,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
@@ -3109,22 +3136,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3139,10 +3166,10 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>32</v>
@@ -3177,22 +3204,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -3207,7 +3234,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>32</v>
@@ -3222,7 +3249,7 @@
         <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>32</v>
@@ -3245,22 +3272,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3275,10 +3302,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>32</v>
@@ -3313,22 +3340,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3343,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>32</v>
@@ -3381,22 +3408,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3414,7 +3441,7 @@
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>32</v>
@@ -3449,22 +3476,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3479,10 +3506,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>32</v>
@@ -3517,22 +3544,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3550,7 +3577,7 @@
         <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>32</v>
@@ -3585,22 +3612,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3618,7 +3645,7 @@
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>32</v>
@@ -3653,22 +3680,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3683,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3721,22 +3748,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3754,7 +3781,7 @@
         <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>32</v>
@@ -3789,22 +3816,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3819,10 +3846,10 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>32</v>
@@ -3857,22 +3884,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3890,7 +3917,7 @@
         <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>32</v>
@@ -3925,22 +3952,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3955,10 +3982,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
@@ -3993,22 +4020,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4023,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>32</v>
@@ -4061,22 +4088,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4091,7 +4118,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
@@ -4129,22 +4156,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4159,10 +4186,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>32</v>
@@ -4197,22 +4224,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4227,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -4265,22 +4292,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4295,10 +4322,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>32</v>
@@ -4333,22 +4360,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4363,10 +4390,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>32</v>
@@ -4401,22 +4428,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4431,10 +4458,10 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>32</v>
@@ -4469,22 +4496,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4499,10 +4526,10 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4537,22 +4564,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4567,10 +4594,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4605,22 +4632,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4635,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>32</v>
@@ -4650,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>32</v>
@@ -4673,22 +4700,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4703,10 +4730,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4741,22 +4768,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4771,10 +4798,10 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>32</v>
@@ -4812,19 +4839,19 @@
         <v>132</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4839,10 +4866,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4877,22 +4904,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4907,10 +4934,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4945,22 +4972,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4975,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>32</v>
@@ -4990,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>32</v>
@@ -5013,22 +5040,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5043,13 +5070,13 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>32</v>
@@ -5081,22 +5108,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5111,10 +5138,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>32</v>
@@ -5149,22 +5176,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5179,10 +5206,10 @@
         <v>30</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>32</v>
@@ -5217,22 +5244,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5247,10 +5274,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5285,22 +5312,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5315,10 +5342,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>32</v>
@@ -5330,7 +5357,7 @@
         <v>32</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>32</v>
@@ -5353,22 +5380,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5383,10 +5410,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>32</v>
@@ -5421,22 +5448,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5451,10 +5478,10 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>32</v>
@@ -5489,22 +5516,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5519,10 +5546,10 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>32</v>
@@ -5557,22 +5584,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5587,10 +5614,10 @@
         <v>30</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5625,22 +5652,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5658,7 +5685,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>32</v>
@@ -5670,7 +5697,7 @@
         <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>32</v>
@@ -5693,22 +5720,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5723,10 +5750,10 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>32</v>
@@ -5761,22 +5788,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5794,7 +5821,7 @@
         <v>32</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5829,22 +5856,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5862,7 +5889,7 @@
         <v>32</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>32</v>
@@ -5897,22 +5924,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5927,10 +5954,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>32</v>
@@ -5965,22 +5992,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5995,10 +6022,10 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>32</v>
@@ -6033,22 +6060,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6066,7 +6093,7 @@
         <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>32</v>
@@ -6078,7 +6105,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6101,22 +6128,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6131,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
@@ -6169,22 +6196,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6199,10 +6226,10 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>32</v>
@@ -6237,22 +6264,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6267,10 +6294,10 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>32</v>
@@ -6305,22 +6332,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6335,7 +6362,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6373,22 +6400,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6403,7 +6430,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
@@ -6418,7 +6445,7 @@
         <v>32</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>32</v>
@@ -6441,22 +6468,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6471,10 +6498,10 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>32</v>
@@ -6509,22 +6536,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6539,10 +6566,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>32</v>
@@ -6577,22 +6604,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6607,10 +6634,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>32</v>
@@ -6645,22 +6672,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6678,7 +6705,7 @@
         <v>32</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -6690,7 +6717,7 @@
         <v>32</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>32</v>
@@ -6713,22 +6740,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6743,10 +6770,10 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>32</v>
@@ -6781,22 +6808,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6811,13 +6838,13 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>32</v>
@@ -6849,22 +6876,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6879,7 +6906,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6917,22 +6944,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6947,7 +6974,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
@@ -6962,7 +6989,7 @@
         <v>32</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>32</v>
@@ -6985,22 +7012,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7015,10 +7042,10 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>32</v>
@@ -7053,22 +7080,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7083,7 +7110,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7121,22 +7148,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7151,10 +7178,10 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>32</v>
@@ -7189,22 +7216,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7219,10 +7246,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>32</v>
@@ -7257,22 +7284,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7287,10 +7314,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>32</v>
@@ -7328,19 +7355,19 @@
         <v>192</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7355,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7396,19 +7423,19 @@
         <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7423,7 +7450,7 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>32</v>
@@ -7438,7 +7465,7 @@
         <v>32</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>32</v>
@@ -7461,22 +7488,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7491,10 +7518,10 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>32</v>
@@ -7532,19 +7559,19 @@
         <v>194</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7559,10 +7586,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>32</v>
@@ -7600,19 +7627,19 @@
         <v>195</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7627,10 +7654,10 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>32</v>
@@ -7665,22 +7692,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7695,10 +7722,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>32</v>
@@ -7733,22 +7760,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7763,10 +7790,10 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>32</v>
@@ -7801,22 +7828,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7831,10 +7858,10 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>32</v>
@@ -7869,22 +7896,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7902,7 +7929,7 @@
         <v>32</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>32</v>
@@ -7914,7 +7941,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7937,22 +7964,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7970,7 +7997,7 @@
         <v>32</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>32</v>
@@ -8005,22 +8032,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8035,10 +8062,10 @@
         <v>30</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>32</v>
@@ -8073,22 +8100,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8103,10 +8130,10 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>32</v>
@@ -8144,19 +8171,19 @@
         <v>206</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8174,7 +8201,7 @@
         <v>32</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>32</v>
@@ -8209,22 +8236,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8239,10 +8266,10 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>32</v>
@@ -8277,22 +8304,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="G105" s="1" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8307,10 +8334,10 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>32</v>
@@ -8345,22 +8372,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8378,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>32</v>
@@ -8390,7 +8417,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8413,22 +8440,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8446,7 +8473,7 @@
         <v>32</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>32</v>
@@ -8481,22 +8508,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="I108" s="1" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8511,10 +8538,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>32</v>
@@ -8549,22 +8576,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8579,10 +8606,10 @@
         <v>30</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>32</v>
@@ -8617,22 +8644,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8650,7 +8677,7 @@
         <v>32</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>32</v>
@@ -8685,22 +8712,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8715,10 +8742,10 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>32</v>
@@ -8753,22 +8780,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8783,7 +8810,7 @@
         <v>30</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>32</v>
@@ -8824,19 +8851,19 @@
         <v>215</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -8851,7 +8878,7 @@
         <v>30</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>32</v>
@@ -8866,7 +8893,7 @@
         <v>32</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>32</v>
@@ -8892,19 +8919,19 @@
         <v>216</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -8922,7 +8949,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>32</v>
@@ -8957,22 +8984,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -8987,7 +9014,7 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>32</v>
@@ -9028,19 +9055,19 @@
         <v>217</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9055,7 +9082,7 @@
         <v>30</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>32</v>
@@ -9096,19 +9123,19 @@
         <v>218</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9123,10 +9150,10 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>32</v>
@@ -9161,22 +9188,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9191,10 +9218,10 @@
         <v>30</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>32</v>
@@ -9229,22 +9256,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9259,10 +9286,10 @@
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>32</v>
@@ -9297,40 +9324,40 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="G120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O120" s="2" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>32</v>
@@ -9365,22 +9392,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="G121" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9395,10 +9422,10 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>32</v>
@@ -9433,22 +9460,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -9463,10 +9490,10 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>32</v>
@@ -9501,22 +9528,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -9531,10 +9558,10 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>32</v>
@@ -9546,7 +9573,7 @@
         <v>32</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>32</v>
@@ -9569,22 +9596,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -9599,10 +9626,10 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>32</v>
@@ -9637,22 +9664,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -9667,10 +9694,10 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>32</v>
@@ -9705,22 +9732,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -9735,10 +9762,10 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>32</v>
@@ -9773,22 +9800,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -9803,10 +9830,10 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>32</v>
@@ -9841,22 +9868,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -9871,10 +9898,10 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>32</v>
@@ -9909,22 +9936,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -9939,10 +9966,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>32</v>
@@ -9977,22 +10004,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10007,10 +10034,10 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>32</v>
@@ -10045,40 +10072,40 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="H131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O131" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>32</v>
@@ -10113,22 +10140,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10146,7 +10173,7 @@
         <v>32</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>32</v>
@@ -10181,22 +10208,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10211,7 +10238,7 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>32</v>
@@ -10249,22 +10276,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10279,10 +10306,10 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>32</v>
@@ -10317,22 +10344,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10347,10 +10374,10 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>32</v>
@@ -10362,7 +10389,7 @@
         <v>32</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>32</v>
@@ -10385,22 +10412,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10415,10 +10442,10 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>32</v>
@@ -10453,22 +10480,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -10483,10 +10510,10 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>32</v>
@@ -10521,22 +10548,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -10551,10 +10578,10 @@
         <v>30</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>32</v>
@@ -10566,7 +10593,7 @@
         <v>32</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>32</v>
@@ -10589,22 +10616,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -10619,10 +10646,10 @@
         <v>30</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>32</v>
@@ -10634,7 +10661,7 @@
         <v>32</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>32</v>
@@ -10657,22 +10684,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -10690,7 +10717,7 @@
         <v>32</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>32</v>
@@ -10702,7 +10729,7 @@
         <v>32</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>32</v>
@@ -10725,22 +10752,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -10755,10 +10782,10 @@
         <v>30</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>32</v>
@@ -10770,7 +10797,7 @@
         <v>32</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>32</v>
@@ -10793,22 +10820,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -10823,7 +10850,7 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>32</v>
@@ -10838,7 +10865,7 @@
         <v>32</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>32</v>
@@ -10861,22 +10888,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -10891,7 +10918,7 @@
         <v>30</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>32</v>
@@ -10906,7 +10933,7 @@
         <v>32</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>32</v>
@@ -10929,22 +10956,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -10974,7 +11001,7 @@
         <v>32</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>32</v>
@@ -10997,22 +11024,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11030,7 +11057,7 @@
         <v>32</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>32</v>
@@ -11042,7 +11069,7 @@
         <v>32</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T145" s="2" t="s">
         <v>32</v>
@@ -11065,22 +11092,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11095,7 +11122,7 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>32</v>
@@ -11110,7 +11137,7 @@
         <v>32</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T146" s="2" t="s">
         <v>32</v>
@@ -11133,22 +11160,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11163,7 +11190,7 @@
         <v>30</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>32</v>
@@ -11178,7 +11205,7 @@
         <v>32</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>32</v>
@@ -11201,22 +11228,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11231,10 +11258,10 @@
         <v>30</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>32</v>
@@ -11246,7 +11273,7 @@
         <v>32</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>32</v>
@@ -11269,22 +11296,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11302,7 +11329,7 @@
         <v>32</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>32</v>
@@ -11314,7 +11341,7 @@
         <v>32</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T149" s="2" t="s">
         <v>32</v>
@@ -11337,22 +11364,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11367,10 +11394,10 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="P150" s="2" t="s">
         <v>32</v>
@@ -11382,7 +11409,7 @@
         <v>32</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T150" s="2" t="s">
         <v>32</v>
@@ -11405,22 +11432,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11435,7 +11462,7 @@
         <v>30</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>32</v>
@@ -11450,7 +11477,7 @@
         <v>32</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T151" s="2" t="s">
         <v>32</v>
@@ -11473,22 +11500,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -11503,7 +11530,7 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>32</v>
@@ -11518,7 +11545,7 @@
         <v>32</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T152" s="2" t="s">
         <v>32</v>
@@ -11541,22 +11568,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -11586,7 +11613,7 @@
         <v>32</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="T153" s="2" t="s">
         <v>32</v>
@@ -11609,22 +11636,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -11642,7 +11669,7 @@
         <v>32</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>32</v>
@@ -11654,7 +11681,7 @@
         <v>32</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T154" s="2" t="s">
         <v>32</v>
@@ -11677,22 +11704,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -11707,10 +11734,10 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>32</v>
@@ -11748,19 +11775,19 @@
         <v>261</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -11775,10 +11802,10 @@
         <v>30</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>32</v>
@@ -11799,6 +11826,618 @@
         <v>33</v>
       </c>
       <c r="V156" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V165" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-QAT.xlsx
+++ b/Excel-XLSX/UN-QAT.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8wLn9O</t>
+    <t>Kq1aXT</t>
   </si>
   <si>
     <t>1980</t>
@@ -12009,7 +12009,7 @@
         <v>244</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>32</v>
@@ -12349,7 +12349,7 @@
         <v>92</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="P164" s="2" t="s">
         <v>32</v>
